--- a/biology/Botanique/Chamissoa_altissima/Chamissoa_altissima.xlsx
+++ b/biology/Botanique/Chamissoa_altissima/Chamissoa_altissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamissoa altissima[3] une espèce de plantes à fleurs de la famille des Amaranthaceae. C'est une plante herbacée plus ou moins lianescente originaire des Amériques. On la trouve notamment au Brésil dans la végétation du Cerrado[4]. 
-On l'appelle liane-panier (Liann Panye) en Haïti, où elle est consommée comme légume-feuille[5] (il est traditionnellement déconseillé d'en consommer en cas d'hypertension artérielle[6]). On la connaît aussi sous les noms de Hierba del arloma au Mexique, et basket withe[5] ou false chaff flower[7] en anglais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamissoa altissima une espèce de plantes à fleurs de la famille des Amaranthaceae. C'est une plante herbacée plus ou moins lianescente originaire des Amériques. On la trouve notamment au Brésil dans la végétation du Cerrado. 
+On l'appelle liane-panier (Liann Panye) en Haïti, où elle est consommée comme légume-feuille (il est traditionnellement déconseillé d'en consommer en cas d'hypertension artérielle). On la connaît aussi sous les noms de Hierba del arloma au Mexique, et basket withe ou false chaff flower en anglais.
 </t>
         </is>
       </c>
